--- a/Roadmap.xlsx
+++ b/Roadmap.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Utilisateur\Cours\Ynov\Infra SI\ProjetServeurWebInfra\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D1551DE0-D6D4-4ED2-B35A-1C9D912A28C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA20477D-C04C-4ACD-AB66-E7568D09E7D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{CF2FA24C-7B2B-485B-9246-0CD47B8A69CD}"/>
   </bookViews>
@@ -165,14 +165,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -185,7 +179,12 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -523,7 +522,7 @@
   <dimension ref="B1:J16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -536,157 +535,151 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
     </row>
     <row r="2" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="H2" s="4"/>
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="H2" s="2"/>
       <c r="I2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="H4" s="5"/>
+      <c r="H4" s="3"/>
       <c r="I4" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="H5" s="6"/>
+      <c r="H5" s="4"/>
       <c r="I5" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="H6" s="7"/>
+      <c r="H6" s="5"/>
       <c r="I6" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="1"/>
-      <c r="D8" s="3">
+      <c r="C8" s="13"/>
+      <c r="D8" s="1">
         <v>45366</v>
       </c>
-      <c r="E8" s="3">
+      <c r="E8" s="1">
         <v>45380</v>
       </c>
-      <c r="F8" s="3">
+      <c r="F8" s="1">
         <v>45401</v>
       </c>
-      <c r="G8" s="3">
+      <c r="G8" s="1">
         <v>45408</v>
       </c>
-      <c r="H8" s="3">
+      <c r="H8" s="1">
         <v>45429</v>
       </c>
-      <c r="I8" s="3">
+      <c r="I8" s="1">
         <v>45433</v>
       </c>
-      <c r="J8" s="3">
+      <c r="J8" s="1">
         <v>45447</v>
       </c>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="C9" s="1"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="J9" s="4"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="J9" s="2"/>
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="C10" s="1"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="4"/>
-      <c r="H10" s="4"/>
-      <c r="J10" s="4"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="J10" s="2"/>
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="C11" s="1"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="4"/>
-      <c r="H11" s="4"/>
-      <c r="J11" s="4"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="J11" s="2"/>
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="C12" s="1"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="14"/>
-      <c r="G12" s="14"/>
-      <c r="H12" s="12"/>
-      <c r="J12" s="4"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="10"/>
+      <c r="J12" s="2"/>
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B13" s="1" t="s">
+      <c r="B13" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="C13" s="1"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="13"/>
-      <c r="H13" s="13"/>
-      <c r="I13" s="13"/>
-      <c r="J13" s="9"/>
+      <c r="C13" s="13"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="11"/>
+      <c r="J13" s="7"/>
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B14" s="1" t="s">
+      <c r="B14" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C14" s="1"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="13"/>
-      <c r="I14" s="13"/>
-      <c r="J14" s="9"/>
+      <c r="C14" s="13"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="11"/>
+      <c r="J14" s="7"/>
     </row>
     <row r="15" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B15" s="1" t="s">
+      <c r="B15" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C15" s="1"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-      <c r="H15" s="10"/>
-      <c r="I15" s="13"/>
-      <c r="J15" s="9"/>
+      <c r="C15" s="13"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="11"/>
+      <c r="J15" s="7"/>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="E16" s="15"/>
-      <c r="F16" s="15"/>
-      <c r="G16" s="15"/>
-      <c r="H16" s="15"/>
-      <c r="I16" s="15"/>
-      <c r="J16" s="15"/>
+      <c r="B16" s="13"/>
+      <c r="C16" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -738,5 +731,6 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Roadmap.xlsx
+++ b/Roadmap.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Utilisateur\Cours\Ynov\Infra SI\ProjetServeurWebInfra\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA20477D-C04C-4ACD-AB66-E7568D09E7D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFF5A765-45ED-481F-89E4-047A0CB4E77F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{CF2FA24C-7B2B-485B-9246-0CD47B8A69CD}"/>
   </bookViews>
@@ -519,194 +519,178 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAD0BB39-D0C1-4FF1-8A47-66C8F9E9958E}">
-  <dimension ref="B1:J16"/>
+  <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="22.85546875" customWidth="1"/>
-    <col min="5" max="7" width="23" customWidth="1"/>
-    <col min="8" max="8" width="22.7109375" customWidth="1"/>
-    <col min="9" max="9" width="23" customWidth="1"/>
-    <col min="10" max="10" width="22.85546875" customWidth="1"/>
+    <col min="3" max="9" width="12.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B1" s="14" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
+      <c r="B1" s="14"/>
       <c r="C1" s="14"/>
       <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-    </row>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="14"/>
       <c r="B2" s="14"/>
       <c r="C2" s="14"/>
       <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="H2" s="2"/>
-      <c r="I2" t="s">
+      <c r="G2" s="2"/>
+      <c r="H2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="H4" s="3"/>
-      <c r="I4" t="s">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G4" s="3"/>
+      <c r="H4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="H5" s="4"/>
-      <c r="I5" t="s">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G5" s="4"/>
+      <c r="H5" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="H6" s="5"/>
-      <c r="I6" t="s">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G6" s="5"/>
+      <c r="H6" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B8" s="13" t="s">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="13"/>
+      <c r="B8" s="13"/>
+      <c r="C8" s="1">
+        <v>45366</v>
+      </c>
       <c r="D8" s="1">
-        <v>45366</v>
+        <v>45380</v>
       </c>
       <c r="E8" s="1">
-        <v>45380</v>
+        <v>45401</v>
       </c>
       <c r="F8" s="1">
-        <v>45401</v>
+        <v>45408</v>
       </c>
       <c r="G8" s="1">
-        <v>45408</v>
+        <v>45429</v>
       </c>
       <c r="H8" s="1">
-        <v>45429</v>
+        <v>45433</v>
       </c>
       <c r="I8" s="1">
-        <v>45433</v>
-      </c>
-      <c r="J8" s="1">
         <v>45447</v>
       </c>
     </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B9" s="13" t="s">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="C9" s="13"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="J9" s="2"/>
-    </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B10" s="13" t="s">
+      <c r="B9" s="13"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="I9" s="2"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="C10" s="13"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="J10" s="2"/>
-    </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B11" s="13" t="s">
+      <c r="B10" s="13"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="I10" s="2"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="C11" s="13"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="J11" s="2"/>
-    </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B12" s="13" t="s">
+      <c r="B11" s="13"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="I11" s="2"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="C12" s="13"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="11"/>
+      <c r="B12" s="13"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="12"/>
       <c r="F12" s="12"/>
-      <c r="G12" s="12"/>
-      <c r="H12" s="10"/>
-      <c r="J12" s="2"/>
-    </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B13" s="13" t="s">
+      <c r="G12" s="10"/>
+      <c r="I12" s="2"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="C13" s="13"/>
+      <c r="B13" s="13"/>
+      <c r="D13" s="11"/>
       <c r="E13" s="11"/>
       <c r="F13" s="11"/>
       <c r="G13" s="11"/>
       <c r="H13" s="11"/>
-      <c r="I13" s="11"/>
-      <c r="J13" s="7"/>
-    </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B14" s="13" t="s">
+      <c r="I13" s="7"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C14" s="13"/>
+      <c r="B14" s="13"/>
+      <c r="D14" s="2"/>
       <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="11"/>
       <c r="H14" s="11"/>
-      <c r="I14" s="11"/>
-      <c r="J14" s="7"/>
-    </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B15" s="13" t="s">
+      <c r="I14" s="7"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C15" s="13"/>
+      <c r="B15" s="13"/>
+      <c r="D15" s="2"/>
       <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="H15" s="8"/>
-      <c r="I15" s="11"/>
-      <c r="J15" s="7"/>
-    </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="G15" s="8"/>
+      <c r="H15" s="11"/>
+      <c r="I15" s="7"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="13"/>
       <c r="B16" s="13"/>
-      <c r="C16" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B1:E2"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A1:D2"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A9:B9"/>
   </mergeCells>
-  <conditionalFormatting sqref="A7:B7">
-    <cfRule type="colorScale" priority="3">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B7">
+  <conditionalFormatting sqref="A7">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
@@ -718,7 +702,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B11:B19 B7:B9">
+  <conditionalFormatting sqref="A11:A19 A7:A9">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
